--- a/cat/cat.xlsx
+++ b/cat/cat.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>color</t>
   </si>
   <si>
+    <t>pic_link</t>
+  </si>
+  <si>
     <t>阿比西尼亞貓</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>單色</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9b/Gustav_chocolate.jpg</t>
+  </si>
+  <si>
     <t>愛琴海貓</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>雙色或三色</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/51/Aegean_cat.jpg</t>
+  </si>
+  <si>
     <t>澳大利亞霧貓</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>虎斑</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f0/Australian_Mist.jpg</t>
+  </si>
+  <si>
     <t>美國多趾貓</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
     <t>所有</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/3a/Polydactylcat.jpg</t>
+  </si>
+  <si>
     <t>美國短尾貓</t>
   </si>
   <si>
@@ -106,15 +121,24 @@
     <t>中</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0a/TICO_%288%29.jpg</t>
+  </si>
+  <si>
     <t>美國反耳貓</t>
   </si>
   <si>
     <t>Cobby</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/17/American_curl_2.jpg</t>
+  </si>
+  <si>
     <t>美国短毛猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0c/American_Shorthair.jpg</t>
+  </si>
+  <si>
     <t>美国硬毛猫</t>
   </si>
   <si>
@@ -127,15 +151,24 @@
     <t>All but colorpoint</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7f/American_Wirehair_-_CFF_cat_show_Heinola_2008-05-04_IMG_8721.JPG</t>
+  </si>
+  <si>
     <t>亞洲貓</t>
   </si>
   <si>
     <t>英國</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a1/BrownVarientAsianCat.JPG</t>
+  </si>
+  <si>
     <t>亞洲半長毛貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a7/Tiffanie_at_cat_show.jpg</t>
+  </si>
+  <si>
     <t>峇里貓</t>
   </si>
   <si>
@@ -148,6 +181,9 @@
     <t>Colorpoint</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e6/Oskar.jpg</t>
+  </si>
+  <si>
     <t>巴比諾貓</t>
   </si>
   <si>
@@ -163,39 +199,60 @@
     <t>Spotted/Marbled</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9f/BengalCat_Stella.jpg</t>
+  </si>
+  <si>
     <t>伯曼貓</t>
   </si>
   <si>
     <t>缅甸</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/ac/Birman2.jpg</t>
+  </si>
+  <si>
     <t>孟買貓</t>
   </si>
   <si>
     <t>雜交 （緬甸貓與美國短毛貓的混種）</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/16/Bombay_cat.jpg</t>
+  </si>
+  <si>
     <t>巴西短毛貓</t>
   </si>
   <si>
     <t>巴西</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/87/Gato_pelo_curto_brasileiro.JPG</t>
+  </si>
+  <si>
     <t>英国短毛猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9d/Britishblue.jpg</t>
+  </si>
+  <si>
     <t>英國長毛貓</t>
   </si>
   <si>
     <t>长</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/50/British_Longhair_-_Black_Silver_Shaded.jpg</t>
+  </si>
+  <si>
     <t>緬甸貓</t>
   </si>
   <si>
     <t>缅甸和泰国</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/04/Blissandlucky11.jpg</t>
+  </si>
+  <si>
     <t>波米拉猫</t>
   </si>
   <si>
@@ -205,12 +262,18 @@
     <t>短/长</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e9/Male_Burmilla_cat.jpeg</t>
+  </si>
+  <si>
     <t>三色貓</t>
   </si>
   <si>
     <t>三色</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/ba/Calico_cat_-_Phoebe.jpg</t>
+  </si>
+  <si>
     <t>加州閃亮貓</t>
   </si>
   <si>
@@ -220,24 +283,36 @@
     <t>Spotted</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6c/Star_Spangled_Cat.jpg</t>
+  </si>
+  <si>
     <t>查达利猫</t>
   </si>
   <si>
     <t>雜交 （亞洲貓與緬甸貓的混種）</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5f/Tiffany3.jpg</t>
+  </si>
+  <si>
     <t>卡特爾貓</t>
   </si>
   <si>
     <t>法国</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7f/Abbaye_fev2006_003.jpg</t>
+  </si>
+  <si>
     <t>獅子貓</t>
   </si>
   <si>
     <t>Ticked</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/61/Chausiecatexample.jpg</t>
+  </si>
+  <si>
     <t>Cheetoh</t>
   </si>
   <si>
@@ -247,9 +322,15 @@
     <t>重點色短毛貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4d/Colorpoint_Shorthair.jpg</t>
+  </si>
+  <si>
     <t>康沃耳帝王貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b8/BebopsLilacPrince.JPG</t>
+  </si>
+  <si>
     <t>威爾斯貓</t>
   </si>
   <si>
@@ -259,6 +340,9 @@
     <t>天然/突變 （馬恩島貓的突變種）</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e4/Cymric_-_Norwegian_forest_cat_presentation_show_Kotka_2009-02-01_IMG_0687.JPG</t>
+  </si>
+  <si>
     <t>Cyprus Shorthair</t>
   </si>
   <si>
@@ -268,15 +352,24 @@
     <t>Svelte</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b9/CyprusShorthair.jpg</t>
+  </si>
+  <si>
     <t>德文帝王貓</t>
   </si>
   <si>
     <t>东方</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b0/Devon_Rex_Izzy.jpg</t>
+  </si>
+  <si>
     <t>短毛家貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/46/Tabby-cat-domestic-shorthair-balthazar.jpg</t>
+  </si>
+  <si>
     <t>顿斯科伊猫</t>
   </si>
   <si>
@@ -286,6 +379,9 @@
     <t>無毛</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/21/Cat_don_sphinx.JPG</t>
+  </si>
+  <si>
     <t>埃及猫</t>
   </si>
   <si>
@@ -295,33 +391,51 @@
     <t>斑點</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e1/Egy_mau.jpg</t>
+  </si>
+  <si>
     <t>欧洲短毛猫</t>
   </si>
   <si>
     <t>瑞典-意大利</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5d/European_shorthair_procumbent_Quincy.jpg</t>
+  </si>
+  <si>
     <t>异国短毛猫</t>
   </si>
   <si>
     <t>雜交 （美國短毛貓與波斯貓的混種）</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4f/Cream_tabby_exotic_cat.jpg</t>
+  </si>
+  <si>
     <t>德国卷毛猫</t>
   </si>
   <si>
     <t>德国</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/ff/German_Rex_Emi.jpg</t>
+  </si>
+  <si>
     <t>哈瓦那棕猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/bd/Havana_Brown_-_choco.jpg</t>
+  </si>
+  <si>
     <t>喜馬拉雅貓</t>
   </si>
   <si>
     <t>雜交 （暹羅貓與波斯貓的混種）</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/dc/Chocolate_Himlayan.jpg</t>
+  </si>
+  <si>
     <t>日本短尾猫</t>
   </si>
   <si>
@@ -331,30 +445,51 @@
     <t>All but colorpoint and ticked</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/56/JapaneseBobtailBlueEyedMi-ke.JPG</t>
+  </si>
+  <si>
     <t>爪哇猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6f/Javanese_cat.jpg</t>
+  </si>
+  <si>
     <t>科拉特貓</t>
   </si>
   <si>
     <t>泰国</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c1/Veda%2Cchat-adulte-m%C3%A2le-race-korat.JPG</t>
+  </si>
+  <si>
     <t>千岛短尾猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/82/Kurilian_bobtail.JPG</t>
+  </si>
+  <si>
     <t>拉邦猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/ac/Laperm_LH_red_tabby.jpg</t>
+  </si>
+  <si>
     <t>緬因貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d0/Maine_Coon_female.jpg</t>
+  </si>
+  <si>
     <t>馬恩島貓</t>
   </si>
   <si>
     <t>天然/突變</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e3/Japanese_Bobtail_looking_like_Manx.jpg</t>
+  </si>
+  <si>
     <t>明斯钦猫</t>
   </si>
   <si>
@@ -367,12 +502,18 @@
     <t>曼切堪貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6e/Longhairedmunchkin.jpg</t>
+  </si>
+  <si>
     <t>尼比龙猫</t>
   </si>
   <si>
     <t>Solid</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9e/Nebelung_Male%2C_Aleksandr_van_Song_de_Chine.JPG</t>
+  </si>
+  <si>
     <t>拿破仑猫</t>
   </si>
   <si>
@@ -388,12 +529,18 @@
     <t>挪威</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6e/Norskskogkatt_Evita_3.JPG</t>
+  </si>
+  <si>
     <t>歐西貓</t>
   </si>
   <si>
     <t>雜交 （阿比西尼亞貓與暹羅貓的混種）</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/21/Ocicat-Charan.jpg</t>
+  </si>
+  <si>
     <t>欧斯亚史烈斯猫</t>
   </si>
   <si>
@@ -406,18 +553,30 @@
     <t>雙色</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6a/Oriental_shorthair_20070130_caroline.jpg</t>
+  </si>
+  <si>
     <t>東方短毛貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/91/Oriental_Shorthair_Blue_Eyed_White_cat_%28juvenile%29.jpg</t>
+  </si>
+  <si>
     <t>東方長毛貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/65/OLH-GIP_Divan_Cesar.jpg</t>
+  </si>
+  <si>
     <t>波斯貓</t>
   </si>
   <si>
     <t>大伊朗</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/81/Persialainen.jpg</t>
+  </si>
+  <si>
     <t>彼得秃猫</t>
   </si>
   <si>
@@ -427,21 +586,36 @@
     <t>Stocky</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b7/Tamila_the_lilac_tabby_Peterbald_cat.jpg</t>
+  </si>
+  <si>
     <t>北美洲短毛猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/8c/Jarnac_Bepacific_feb07.jpg</t>
+  </si>
+  <si>
     <t>褴褛猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/46/Ragamuffin.jpg</t>
+  </si>
+  <si>
     <t>布偶貓</t>
   </si>
   <si>
     <t>Colorpoint/Mitted/Bicolor</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/64/Ragdoll_from_Gatil_Ragbelas.jpg</t>
+  </si>
+  <si>
     <t>俄羅斯藍貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5f/Russian_Blue_001.gif</t>
+  </si>
+  <si>
     <t>Russian White, Black and Tabby</t>
   </si>
   <si>
@@ -463,6 +637,9 @@
     <t>All</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/2d/Scottishfold.jpg</t>
+  </si>
+  <si>
     <t>塞爾凱克鬈毛貓</t>
   </si>
   <si>
@@ -472,27 +649,45 @@
     <t>Rex (短/長)</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b2/Selkirk_Rex.jpg</t>
+  </si>
+  <si>
     <t>塞伦盖蒂猫</t>
   </si>
   <si>
     <t>雜交 （孟加拉貓與東方短毛貓的混種）</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/1a/Serengetimalecat.jpg</t>
+  </si>
+  <si>
     <t>暹罗猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/25/Siam_lilacpoint.jpg</t>
+  </si>
+  <si>
     <t>西伯利亚猫</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/42/Siberiancat.jpg</t>
+  </si>
+  <si>
     <t>新加坡貓</t>
   </si>
   <si>
     <t>新加坡</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/da/Raffles_singapura_cat.jpg</t>
+  </si>
+  <si>
     <t>雪鞋貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4b/Snowshoe_%28cat%29.JPG</t>
+  </si>
+  <si>
     <t>肯尼亚猫</t>
   </si>
   <si>
@@ -502,21 +697,33 @@
     <t>Classic tabby with ticking</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/94/Sokoke_dalili.jpg</t>
+  </si>
+  <si>
     <t>索馬利貓</t>
   </si>
   <si>
     <t>突變 （阿比西尼亞貓的突變種）</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c6/Blue_Somali_kitten_age_3_months.jpg</t>
+  </si>
+  <si>
     <t>斯芬克斯貓</t>
   </si>
   <si>
     <t>加拿大/美国</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e8/Sphinx2_July_2006.jpg</t>
+  </si>
+  <si>
     <t>Thai</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/57/Mimbi3.JPG</t>
+  </si>
+  <si>
     <t>東奇尼貓</t>
   </si>
   <si>
@@ -529,27 +736,42 @@
     <t>Colourpoint/Mink/Solid</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/81/Tonkinese.gif</t>
+  </si>
+  <si>
     <t>玩具虎貓</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/ca/Toyger_-_Cornish_Rex_presentation_show_Riihim%C3%A4ki_2008-11-16_IMG_0101.JPG</t>
+  </si>
+  <si>
     <t>土耳其安哥拉貓</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a1/Turkse_angora.jpg</t>
+  </si>
+  <si>
     <t>土耳其梵貓</t>
   </si>
   <si>
     <t>Van</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/11/Turkish_Van_Example2.jpg</t>
+  </si>
+  <si>
     <t>烏克蘭勒夫科伊貓</t>
   </si>
   <si>
     <t>乌克兰</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/92/Ukrainian_Levkoy_cat.jpg</t>
+  </si>
+  <si>
     <t>烏蘇里貓</t>
   </si>
   <si>
@@ -557,6 +779,9 @@
   </si>
   <si>
     <t>York Chocolate Cat</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/ad/Adult_Kittie_%28s%29.jpg</t>
   </si>
 </sst>
 </file>
@@ -905,7 +1130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,7 +1138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,1711 +1157,1945 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s"/>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s"/>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s"/>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s"/>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s"/>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s"/>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s"/>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s"/>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s"/>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s"/>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s"/>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s"/>
       <c r="F24" t="s"/>
       <c r="G24" t="s"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s"/>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s"/>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s"/>
       <c r="D28" t="s"/>
       <c r="E28" t="s"/>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s"/>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s"/>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s"/>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s"/>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s"/>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G34" t="s"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s"/>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="H35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s"/>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s"/>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s"/>
       <c r="E39" t="s"/>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="H41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s"/>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s"/>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
         <v>23</v>
       </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s"/>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="H46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s"/>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s"/>
       <c r="F49" t="s"/>
       <c r="G49" t="s"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s"/>
       <c r="E50" t="s"/>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="H50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s"/>
       <c r="D51" t="s"/>
       <c r="E51" t="s"/>
       <c r="F51" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="G51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>168</v>
+      </c>
+      <c r="H51" t="s"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s"/>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s"/>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s"/>
       <c r="E54" t="s"/>
       <c r="F54" t="s"/>
       <c r="G54" t="s"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="s"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s"/>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s"/>
       <c r="D56" t="s"/>
       <c r="E56" t="s"/>
       <c r="F56" t="s"/>
       <c r="G56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>178</v>
+      </c>
+      <c r="H56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s"/>
       <c r="D57" t="s"/>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s"/>
       <c r="D58" t="s"/>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s"/>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s"/>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>196</v>
+      </c>
+      <c r="H63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s"/>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="H64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s"/>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="s"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s"/>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>206</v>
+      </c>
+      <c r="H67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s"/>
       <c r="F68" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="G68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="E69" t="s"/>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s"/>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="H72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s"/>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s"/>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>226</v>
+      </c>
+      <c r="H74" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s"/>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="H75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s"/>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="E78" t="s"/>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>239</v>
+      </c>
+      <c r="H78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s"/>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s"/>
       <c r="F79" t="s"/>
       <c r="G79" t="s"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s"/>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s"/>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>247</v>
+      </c>
+      <c r="H81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="D82" t="s"/>
       <c r="E82" t="s"/>
       <c r="F82" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G82" t="s"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="E83" t="s"/>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H83" t="s"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s"/>
       <c r="E84" t="s"/>
       <c r="F84" t="s"/>
       <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
